--- a/analysis/fine_roots.xlsx
+++ b/analysis/fine_roots.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\storage.slu.se\home_2$\bebu0001\Documents\slu\3_paper-projects\nutrient-resorp\analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="fine_roots.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="fine_roots.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="40">
   <si>
     <t>plotID</t>
   </si>
@@ -119,20 +127,33 @@
   </si>
   <si>
     <t>UPL9</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Mafic</t>
+  </si>
+  <si>
+    <t>Sedim</t>
+  </si>
+  <si>
+    <t>Felsic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -143,36 +164,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -362,1791 +390,2279 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="1">
-        <v>0.040475496</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.0475496E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
+      <c r="B3" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="1">
-        <v>0.165058955</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.16505895500000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.0</v>
+      <c r="B4" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="1">
-        <v>0.039747314</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.9747313999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>4.0</v>
+      <c r="B5" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="1">
-        <v>0.030523198</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0523198000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.188760665</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.18876066499999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>1.0</v>
+      <c r="B7" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.102789961</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>2.0</v>
+      <c r="B8" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="1">
-        <v>0.30346111</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.30346110999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
-        <v>3.0</v>
+      <c r="B9" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="1">
-        <v>0.07112452</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.1124519999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
-        <v>4.0</v>
+      <c r="B10" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.149480746</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.139684247</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.1396842469999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
-        <v>1.0</v>
+      <c r="B12" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="1">
-        <v>0.176977498</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.17697749800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
-        <v>2.0</v>
+      <c r="B13" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.122845176</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
-        <v>3.0</v>
+      <c r="B14" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="1">
-        <v>0.057959013</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.7959012999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1">
-        <v>4.0</v>
+      <c r="B15" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="1">
-        <v>0.066067035</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.6067034999999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.864964235</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.86496423499999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1">
-        <v>1.0</v>
+      <c r="B17" t="s">
+        <v>37</v>
       </c>
       <c r="C17" s="1">
-        <v>0.271000359</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.27100035900000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1">
-        <v>2.0</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="1">
-        <v>0.041898082</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.1898082000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1">
-        <v>3.0</v>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="1">
-        <v>0.051674301</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.1674300999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1">
-        <v>4.0</v>
+      <c r="B20" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="1">
-        <v>0.062847123</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.2847123000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.496467507</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.49646750699999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1">
-        <v>1.0</v>
+      <c r="B22" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="1">
-        <v>0.193196711</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.19319671099999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1">
-        <v>2.0</v>
+      <c r="B23" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="1">
-        <v>0.029328657</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.9328657000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1">
-        <v>3.0</v>
+      <c r="B24" t="s">
+        <v>37</v>
       </c>
       <c r="C24" s="1">
-        <v>0.058756364</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.8756363999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1">
-        <v>4.0</v>
+      <c r="B25" t="s">
+        <v>37</v>
       </c>
       <c r="C25" s="1">
-        <v>0.013262773</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.3262773E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.388223111</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.3882231110000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1">
-        <v>1.0</v>
+      <c r="B27" t="s">
+        <v>37</v>
       </c>
       <c r="C27" s="1">
-        <v>0.067036931</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6.7036930999999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1">
-        <v>2.0</v>
+      <c r="B28" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="1">
-        <v>0.065640328</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.5640327999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1">
-        <v>3.0</v>
+      <c r="B29" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="1">
-        <v>0.031190794</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.1190794000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1">
-        <v>4.0</v>
+      <c r="B30" t="s">
+        <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="1">
-        <v>1.0</v>
+      <c r="B32" t="s">
+        <v>37</v>
       </c>
       <c r="C32" s="1">
-        <v>0.140591341</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.14059134100000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="1">
-        <v>2.0</v>
+      <c r="B33" t="s">
+        <v>37</v>
       </c>
       <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
         <v>0.167146603</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1">
-        <v>3.0</v>
+      <c r="B34" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="1">
-        <v>0.049812164</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.9812163999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1">
-        <v>4.0</v>
+      <c r="B35" t="s">
+        <v>37</v>
       </c>
       <c r="C35" s="1">
-        <v>0.020949041</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.0949041000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.722974679</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.72297467900000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="1">
-        <v>1.0</v>
+      <c r="B37" t="s">
+        <v>37</v>
       </c>
       <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
         <v>0.269823647</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="1">
-        <v>2.0</v>
+      <c r="B38" t="s">
+        <v>37</v>
       </c>
       <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
         <v>0.162038396</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="1">
-        <v>3.0</v>
+      <c r="B39" t="s">
+        <v>37</v>
       </c>
       <c r="C39" s="1">
-        <v>0.06647829</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.6478289999999995E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="1">
-        <v>4.0</v>
+      <c r="B40" t="s">
+        <v>37</v>
       </c>
       <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
         <v>0.104407422</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
         <v>0.338661304</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="1">
-        <v>1.0</v>
+      <c r="B42" t="s">
+        <v>38</v>
       </c>
       <c r="C42" s="1">
-        <v>0.59231345</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.59231345000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="1">
-        <v>2.0</v>
+      <c r="B43" t="s">
+        <v>38</v>
       </c>
       <c r="C43" s="1">
-        <v>0.399108415</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.39910841499999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1">
-        <v>3.0</v>
+      <c r="B44" t="s">
+        <v>38</v>
       </c>
       <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
         <v>0.113001088</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="1">
-        <v>4.0</v>
+      <c r="B45" t="s">
+        <v>38</v>
       </c>
       <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
         <v>0.149027456</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>4.806828132</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4.8068281319999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="1">
-        <v>1.0</v>
+      <c r="B47" t="s">
+        <v>38</v>
       </c>
       <c r="C47" s="1">
-        <v>0.878854609</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.87885460900000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="1">
-        <v>2.0</v>
+      <c r="B48" t="s">
+        <v>38</v>
       </c>
       <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
         <v>0.430186501</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="1">
-        <v>3.0</v>
+      <c r="B49" t="s">
+        <v>38</v>
       </c>
       <c r="C49" s="1">
-        <v>0.074115846</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7.4115845999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="1">
-        <v>4.0</v>
+      <c r="B50" t="s">
+        <v>38</v>
       </c>
       <c r="C50" s="1">
-        <v>0.082252356</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8.2252355999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3.077265802</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.0772658019999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="1">
-        <v>1.0</v>
+      <c r="B52" t="s">
+        <v>38</v>
       </c>
       <c r="C52" s="1">
-        <v>0.356311697</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.35631169699999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="1">
-        <v>2.0</v>
+      <c r="B53" t="s">
+        <v>38</v>
       </c>
       <c r="C53" s="1">
-        <v>0.309675137</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.30967513699999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="1">
-        <v>3.0</v>
+      <c r="B54" t="s">
+        <v>38</v>
       </c>
       <c r="C54" s="1">
-        <v>0.190821801</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.19082180100000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="1">
-        <v>4.0</v>
+      <c r="B55" t="s">
+        <v>38</v>
       </c>
       <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1">
         <v>0.169100256</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1.125877991</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.1258779910000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="1">
-        <v>1.0</v>
+      <c r="B57" t="s">
+        <v>38</v>
       </c>
       <c r="C57" s="1">
-        <v>1.212675346</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.2126753459999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="1">
-        <v>2.0</v>
+      <c r="B58" t="s">
+        <v>38</v>
       </c>
       <c r="C58" s="1">
-        <v>0.740426015</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.74042601500000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="1">
-        <v>3.0</v>
+      <c r="B59" t="s">
+        <v>38</v>
       </c>
       <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
         <v>0.158273571</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="1">
-        <v>4.0</v>
+      <c r="B60" t="s">
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>0.013013051</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1.3013050999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1.702499369</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.7024993690000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="1">
-        <v>1.0</v>
+      <c r="B62" t="s">
+        <v>38</v>
       </c>
       <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
         <v>0.252390424</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="1">
-        <v>2.0</v>
+      <c r="B63" t="s">
+        <v>38</v>
       </c>
       <c r="C63" s="1">
-        <v>0.016266314</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.6266314E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="1">
-        <v>3.0</v>
+      <c r="B64" t="s">
+        <v>38</v>
       </c>
       <c r="C64" s="1">
-        <v>0.148980758</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.14898075799999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="1">
-        <v>4.0</v>
+      <c r="B65" t="s">
+        <v>38</v>
       </c>
       <c r="C65" s="1">
-        <v>0.056628565</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5.6628564999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="1">
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
         <v>4.071967774</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="1">
-        <v>1.0</v>
+      <c r="B67" t="s">
+        <v>38</v>
       </c>
       <c r="C67" s="1">
-        <v>0.591485901</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.59148590099999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="1">
-        <v>2.0</v>
+      <c r="B68" t="s">
+        <v>38</v>
       </c>
       <c r="C68" s="1">
-        <v>0.37640271</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.37640270999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="1">
-        <v>3.0</v>
+      <c r="B69" t="s">
+        <v>38</v>
       </c>
       <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
         <v>0.110566833</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="1">
-        <v>4.0</v>
+      <c r="B70" t="s">
+        <v>38</v>
       </c>
       <c r="C70" s="1">
-        <v>0.157510845</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.15751084500000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="1">
-        <v>5.988665357</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5.9886653570000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="1">
-        <v>1.0</v>
+      <c r="B72" t="s">
+        <v>38</v>
       </c>
       <c r="C72" s="1">
-        <v>0.540426575</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.54042657500000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="1">
-        <v>2.0</v>
+      <c r="B73" t="s">
+        <v>38</v>
       </c>
       <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
         <v>0.254479177</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="1">
-        <v>3.0</v>
+      <c r="B74" t="s">
+        <v>38</v>
       </c>
       <c r="C74" s="1">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
         <v>0.200603791</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="1">
-        <v>4.0</v>
+      <c r="B75" t="s">
+        <v>38</v>
       </c>
       <c r="C75" s="1">
-        <v>0.150690584</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.15069058399999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="1">
-        <v>6.200034045</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1">
+        <v>6.2000340449999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="1">
-        <v>1.0</v>
+      <c r="B77" t="s">
+        <v>38</v>
       </c>
       <c r="C77" s="1">
-        <v>0.350136519</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.35013651899999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="1">
-        <v>2.0</v>
+      <c r="B78" t="s">
+        <v>38</v>
       </c>
       <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
         <v>0.218839432</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="1">
-        <v>3.0</v>
+      <c r="B79" t="s">
+        <v>38</v>
       </c>
       <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
         <v>0.147964442</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="1">
-        <v>4.0</v>
+      <c r="B80" t="s">
+        <v>38</v>
       </c>
       <c r="C80" s="1">
-        <v>0.251421352</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.25142135199999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="1">
-        <v>6.619922872</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1">
+        <v>6.6199228720000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="1">
-        <v>1.0</v>
+      <c r="B82" t="s">
+        <v>38</v>
       </c>
       <c r="C82" s="1">
-        <v>0.397579785</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.39757978500000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="1">
-        <v>2.0</v>
+      <c r="B83" t="s">
+        <v>38</v>
       </c>
       <c r="C83" s="1">
-        <v>0.413186482</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.41318648200000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="1">
-        <v>3.0</v>
+      <c r="B84" t="s">
+        <v>38</v>
       </c>
       <c r="C84" s="1">
-        <v>0.260252643</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.26025264300000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="1">
-        <v>4.0</v>
+      <c r="B85" t="s">
+        <v>38</v>
       </c>
       <c r="C85" s="1">
-        <v>0.161392142</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.16139214199999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="1">
+      <c r="B86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1">
         <v>1.718922206</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="1">
-        <v>1.0</v>
+      <c r="B87" t="s">
+        <v>38</v>
       </c>
       <c r="C87" s="1">
-        <v>0.245977452</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.24597745200000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="1">
-        <v>2.0</v>
+      <c r="B88" t="s">
+        <v>38</v>
       </c>
       <c r="C88" s="1">
-        <v>0.032389782</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3.2389781999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="1">
-        <v>3.0</v>
+      <c r="B89" t="s">
+        <v>38</v>
       </c>
       <c r="C89" s="1">
-        <v>0.088679446</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>8.8679445999999995E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="1">
-        <v>4.0</v>
+      <c r="B90" t="s">
+        <v>38</v>
       </c>
       <c r="C90" s="1">
-        <v>0.062847123</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>4</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6.2847123000000005E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="1">
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1">
         <v>4.046549604</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="1">
-        <v>1.0</v>
+      <c r="B92" t="s">
+        <v>38</v>
       </c>
       <c r="C92" s="1">
-        <v>0.829052781</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.82905278100000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="1">
-        <v>2.0</v>
+      <c r="B93" t="s">
+        <v>38</v>
       </c>
       <c r="C93" s="1">
-        <v>0.636308633</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.63630863299999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B94" s="1">
-        <v>3.0</v>
+      <c r="B94" t="s">
+        <v>38</v>
       </c>
       <c r="C94" s="1">
-        <v>0.180884699</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.18088469900000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="1">
-        <v>4.0</v>
+      <c r="B95" t="s">
+        <v>38</v>
       </c>
       <c r="C95" s="1">
-        <v>0.102796561</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.10279656099999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="1">
+      <c r="B96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1">
         <v>4.998202139</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B97" s="1">
-        <v>1.0</v>
+      <c r="B97" t="s">
+        <v>38</v>
       </c>
       <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
         <v>0.284397607</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B98" s="1">
-        <v>2.0</v>
+      <c r="B98" t="s">
+        <v>38</v>
       </c>
       <c r="C98" s="1">
-        <v>0.709786367</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.70978636699999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B99" s="1">
-        <v>3.0</v>
+      <c r="B99" t="s">
+        <v>38</v>
       </c>
       <c r="C99" s="1">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1">
         <v>0.455982575</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="1">
-        <v>4.0</v>
+      <c r="B100" t="s">
+        <v>38</v>
       </c>
       <c r="C100" s="1">
-        <v>0.090318538</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>9.0318538000000004E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="1">
-        <v>7.020508313</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="B101" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1">
+        <v>7.0205083129999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="1">
-        <v>1.0</v>
+      <c r="B102" t="s">
+        <v>39</v>
       </c>
       <c r="C102" s="1">
-        <v>0.881070107</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.88107010699999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B103" s="1">
-        <v>2.0</v>
+      <c r="B103" t="s">
+        <v>39</v>
       </c>
       <c r="C103" s="1">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
         <v>0.259209466</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B104" s="1">
-        <v>3.0</v>
+      <c r="B104" t="s">
+        <v>39</v>
       </c>
       <c r="C104" s="1">
-        <v>0.263788561</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.26378856099999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B105" s="1">
-        <v>4.0</v>
+      <c r="B105" t="s">
+        <v>39</v>
       </c>
       <c r="C105" s="1">
-        <v>0.471667656</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.47166765599999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0.917567992</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="B106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.91756799200000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B107" s="1">
-        <v>1.0</v>
+      <c r="B107" t="s">
+        <v>39</v>
       </c>
       <c r="C107" s="1">
-        <v>1.018801151</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1.0188011509999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B108" s="1">
-        <v>2.0</v>
+      <c r="B108" t="s">
+        <v>39</v>
       </c>
       <c r="C108" s="1">
-        <v>0.246588833</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.24658883300000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="1">
-        <v>3.0</v>
+      <c r="B109" t="s">
+        <v>39</v>
       </c>
       <c r="C109" s="1">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1">
         <v>0.512959096</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="1">
-        <v>4.0</v>
+      <c r="B110" t="s">
+        <v>39</v>
       </c>
       <c r="C110" s="1">
-        <v>0.054886487</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>4</v>
+      </c>
+      <c r="D110" s="1">
+        <v>5.4886486999999998E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B112" s="1">
-        <v>1.0</v>
+      <c r="B112" t="s">
+        <v>39</v>
       </c>
       <c r="C112" s="1">
-        <v>1.586719041</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1.5867190410000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B113" s="1">
-        <v>2.0</v>
+      <c r="B113" t="s">
+        <v>39</v>
       </c>
       <c r="C113" s="1">
-        <v>0.587758036</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.58775803599999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B114" s="1">
-        <v>3.0</v>
+      <c r="B114" t="s">
+        <v>39</v>
       </c>
       <c r="C114" s="1">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1">
         <v>0.109239655</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="1">
-        <v>4.0</v>
+      <c r="B115" t="s">
+        <v>39</v>
       </c>
       <c r="C115" s="1">
-        <v>0.037475507</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3.7475506999999998E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="B116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B117" s="1">
-        <v>1.0</v>
+      <c r="B117" t="s">
+        <v>39</v>
       </c>
       <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
         <v>1.222673839</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B118" s="1">
-        <v>2.0</v>
+      <c r="B118" t="s">
+        <v>39</v>
       </c>
       <c r="C118" s="1">
-        <v>0.573602878</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>2</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.57360287799999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="1">
-        <v>3.0</v>
+      <c r="B119" t="s">
+        <v>39</v>
       </c>
       <c r="C119" s="1">
-        <v>0.135588262</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.13558826199999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B120" s="1">
-        <v>4.0</v>
+      <c r="B120" t="s">
+        <v>39</v>
       </c>
       <c r="C120" s="1">
-        <v>0.321470137</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>4</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.32147013699999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0.34314529</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="B121" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.34314528999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B122" s="1">
-        <v>1.0</v>
+      <c r="B122" t="s">
+        <v>39</v>
       </c>
       <c r="C122" s="1">
-        <v>0.411136566</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.41113656599999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B123" s="1">
-        <v>2.0</v>
+      <c r="B123" t="s">
+        <v>39</v>
       </c>
       <c r="C123" s="1">
-        <v>0.828918634</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.82891863399999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B124" s="1">
-        <v>3.0</v>
+      <c r="B124" t="s">
+        <v>39</v>
       </c>
       <c r="C124" s="1">
-        <v>0.291687006</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0.29168700600000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B125" s="1">
-        <v>4.0</v>
+      <c r="B125" t="s">
+        <v>39</v>
       </c>
       <c r="C125" s="1">
-        <v>0.024595726</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>4</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2.4595725999999998E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="1">
+      <c r="B126" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="1">
         <v>0.114267496</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B127" s="1">
-        <v>1.0</v>
+      <c r="B127" t="s">
+        <v>39</v>
       </c>
       <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
         <v>0.554421053</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B128" s="1">
-        <v>2.0</v>
+      <c r="B128" t="s">
+        <v>39</v>
       </c>
       <c r="C128" s="1">
-        <v>0.32523386</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.32523385999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B129" s="1">
-        <v>3.0</v>
+      <c r="B129" t="s">
+        <v>39</v>
       </c>
       <c r="C129" s="1">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1">
         <v>0.109487128</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B130" s="1">
-        <v>4.0</v>
+      <c r="B130" t="s">
+        <v>39</v>
       </c>
       <c r="C130" s="1">
+        <v>4</v>
+      </c>
+      <c r="D130" s="1">
         <v>0.117407736</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="132">
+      <c r="B131" t="s">
+        <v>39</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B132" s="1">
-        <v>1.0</v>
+      <c r="B132" t="s">
+        <v>39</v>
       </c>
       <c r="C132" s="1">
-        <v>0.574569414</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.57456941399999995</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B133" s="1">
-        <v>2.0</v>
+      <c r="B133" t="s">
+        <v>39</v>
       </c>
       <c r="C133" s="1">
-        <v>0.402652205</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.40265220499999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B134" s="1">
-        <v>3.0</v>
+      <c r="B134" t="s">
+        <v>39</v>
       </c>
       <c r="C134" s="1">
-        <v>0.182265466</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.18226546599999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B135" s="1">
-        <v>4.0</v>
+      <c r="B135" t="s">
+        <v>39</v>
       </c>
       <c r="C135" s="1">
-        <v>0.171751522</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>4</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0.17175152199999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.19155803</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="B136" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.19155802999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B137" s="1">
-        <v>1.0</v>
+      <c r="B137" t="s">
+        <v>39</v>
       </c>
       <c r="C137" s="1">
-        <v>0.897985152</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.89798515199999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B138" s="1">
-        <v>2.0</v>
+      <c r="B138" t="s">
+        <v>39</v>
       </c>
       <c r="C138" s="1">
-        <v>0.281171044</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.28117104399999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B139" s="1">
-        <v>3.0</v>
+      <c r="B139" t="s">
+        <v>39</v>
       </c>
       <c r="C139" s="1">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1">
         <v>0.205090678</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B140" s="1">
-        <v>4.0</v>
+      <c r="B140" t="s">
+        <v>39</v>
       </c>
       <c r="C140" s="1">
-        <v>0.026500537</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>4</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2.6500537000000001E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="B141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B142" s="1">
-        <v>1.0</v>
+      <c r="B142" t="s">
+        <v>39</v>
       </c>
       <c r="C142" s="1">
-        <v>0.663583882</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0.66358388199999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B143" s="1">
-        <v>2.0</v>
+      <c r="B143" t="s">
+        <v>39</v>
       </c>
       <c r="C143" s="1">
-        <v>0.477163353</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.47716335300000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B144" s="1">
-        <v>3.0</v>
+      <c r="B144" t="s">
+        <v>39</v>
       </c>
       <c r="C144" s="1">
-        <v>0.085757756</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1">
+        <v>8.5757756000000004E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B145" s="1">
-        <v>4.0</v>
+      <c r="B145" t="s">
+        <v>39</v>
       </c>
       <c r="C145" s="1">
-        <v>0.012686896</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>4</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1.2686896E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="1">
-        <v>0.518698253</v>
-      </c>
-    </row>
-    <row r="147">
+      <c r="B146" t="s">
+        <v>39</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0.51869825300000005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B147" s="1">
-        <v>1.0</v>
+      <c r="B147" t="s">
+        <v>39</v>
       </c>
       <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
         <v>1.600622202</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B148" s="1">
-        <v>2.0</v>
+      <c r="B148" t="s">
+        <v>39</v>
       </c>
       <c r="C148" s="1">
-        <v>0.302411044</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0.30241104400000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B149" s="1">
-        <v>3.0</v>
+      <c r="B149" t="s">
+        <v>39</v>
       </c>
       <c r="C149" s="1">
-        <v>0.357432536</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.35743253600000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B150" s="1">
-        <v>4.0</v>
+      <c r="B150" t="s">
+        <v>39</v>
       </c>
       <c r="C150" s="1">
-        <v>0.392288475</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>4</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.39228847500000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="1">
+      <c r="B151" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="1">
         <v>0.17429602</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B152" s="1">
-        <v>1.0</v>
+      <c r="B152" t="s">
+        <v>39</v>
       </c>
       <c r="C152" s="1">
-        <v>0.717050429</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.71705042900000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B153" s="1">
-        <v>2.0</v>
+      <c r="B153" t="s">
+        <v>39</v>
       </c>
       <c r="C153" s="1">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1">
         <v>0.472924599</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B154" s="1">
-        <v>3.0</v>
+      <c r="B154" t="s">
+        <v>39</v>
       </c>
       <c r="C154" s="1">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1">
         <v>0.238306979</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B155" s="1">
-        <v>4.0</v>
+      <c r="B155" t="s">
+        <v>39</v>
       </c>
       <c r="C155" s="1">
-        <v>0.582662658</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>4</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0.58266265800000006</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="1">
-        <v>0.639364729</v>
-      </c>
-    </row>
-    <row r="157">
+      <c r="B156" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.63936472899999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B157" s="1">
-        <v>1.0</v>
+      <c r="B157" t="s">
+        <v>39</v>
       </c>
       <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
         <v>0.671407541</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B158" s="1">
-        <v>2.0</v>
+      <c r="B158" t="s">
+        <v>39</v>
       </c>
       <c r="C158" s="1">
-        <v>0.291492301</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0.29149230100000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B159" s="1">
-        <v>3.0</v>
+      <c r="B159" t="s">
+        <v>39</v>
       </c>
       <c r="C159" s="1">
-        <v>0.398206353</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0.39820635300000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B160" s="1">
-        <v>4.0</v>
+      <c r="B160" t="s">
+        <v>39</v>
       </c>
       <c r="C160" s="1">
-        <v>0.477360021</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>4</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.47736002100000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" s="1">
-        <v>0.0</v>
+      <c r="B161" t="s">
+        <v>39</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>